--- a/AAHSL_memebers_data/AAHSL_members.xlsx
+++ b/AAHSL_memebers_data/AAHSL_members.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>instName</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>W.K. Kellogg Health Sciences Library</t>
+  </si>
+  <si>
+    <t>http://libraries.dal.ca/</t>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+  </si>
+  <si>
+    <t>Dartmouth Biomedical Libraries</t>
+  </si>
+  <si>
+    <t>http://www.dartmouth.edu/~library/biomed/?mswitch-redir=classic</t>
+  </si>
+  <si>
+    <t>Drexel University Libraries</t>
+  </si>
+  <si>
+    <t>Library Academic Partnerships</t>
   </si>
 </sst>
 </file>
@@ -197,8 +215,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -209,6 +230,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -534,20 +560,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -569,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -580,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -591,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -602,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -613,7 +639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -624,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -635,7 +661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -646,7 +672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -657,7 +683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -668,7 +694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -679,7 +705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -690,12 +716,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
